--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tho.phanv\dev\workspace\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodzai/dev/IdeaProjects/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8391F4-32C7-469F-83C4-AFC07170E5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D69D86-3F73-B040-A510-477818828A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{9A9D0B76-5DF0-45AE-B2CE-FB745F534E0F}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{9A9D0B76-5DF0-45AE-B2CE-FB745F534E0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,14 +394,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C035E7C5-E4DE-4736-89C5-E6DD6EC71FD3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodzai/dev/IdeaProjects/DataDrivenFramework/src/test/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tho.phanv\dev\workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D69D86-3F73-B040-A510-477818828A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6BDB77-CC2C-478D-B2F8-0CA7B00C1665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{9A9D0B76-5DF0-45AE-B2CE-FB745F534E0F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{9A9D0B76-5DF0-45AE-B2CE-FB745F534E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>firstName</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>postCode</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>popUpMessage</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
   </si>
 </sst>
 </file>
@@ -394,15 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C035E7C5-E4DE-4736-89C5-E6DD6EC71FD3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,6 +430,23 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tho.phanv\dev\workspace\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodzai/dev/IdeaProjects/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6BDB77-CC2C-478D-B2F8-0CA7B00C1665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E7938-2D63-BD49-93FB-CF50BC141A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{9A9D0B76-5DF0-45AE-B2CE-FB745F534E0F}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{9A9D0B76-5DF0-45AE-B2CE-FB745F534E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -412,16 +412,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
